--- a/TemperatureData/N.IndianBrook02/1202_2024.xlsx
+++ b/TemperatureData/N.IndianBrook02/1202_2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice.sharepoint.com/sites/TeamMosher/Shared Documents/General/People/Scott, Reed/VTADS/HoboLoggerData/N.IndianBrook-2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitrepos\VTADS\TemperatureData\N.IndianBrook02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6622312C-6740-47B0-B581-9FFB163F44BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{669E29B3-D277-4D43-925E-E02F484ACAD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{59972A69-BE0A-4E82-8D7F-CA119461EBC1}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{59972A69-BE0A-4E82-8D7F-CA119461EBC1}"/>
   </bookViews>
   <sheets>
     <sheet name="1202_2024" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Plot Title: Indian Brook-2</t>
   </si>
@@ -53,9 +53,6 @@
     <t>End Of File (LGR S/N: 21422109)</t>
   </si>
   <si>
-    <t>Logged</t>
-  </si>
-  <si>
     <t>#Site: N. Indian Brook-2</t>
   </si>
   <si>
@@ -69,6 +66,9 @@
   </si>
   <si>
     <t>#Logger was collected on 08/07/2024 at 11:04</t>
+  </si>
+  <si>
+    <t>#all data after this date/time was deleted</t>
   </si>
 </sst>
 </file>
@@ -930,9 +930,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBF4C946-0FD8-4FC4-92D4-81A3954CB925}">
-  <dimension ref="A1:I5929"/>
+  <dimension ref="A1:I5759"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A5739" workbookViewId="0">
+      <selection activeCell="A5929" sqref="A5760:XFD5929"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -81571,2224 +81573,6 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5760" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5760">
-        <v>5758</v>
-      </c>
-      <c r="B5760" s="1">
-        <v>45511.46875</v>
-      </c>
-      <c r="C5760">
-        <v>74.097999999999999</v>
-      </c>
-      <c r="D5760">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5761" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5761">
-        <v>5759</v>
-      </c>
-      <c r="B5761" s="1">
-        <v>45511.479166666664</v>
-      </c>
-      <c r="C5761">
-        <v>77.923000000000002</v>
-      </c>
-      <c r="D5761">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5762" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5762">
-        <v>5760</v>
-      </c>
-      <c r="B5762" s="1">
-        <v>45511.489583333336</v>
-      </c>
-      <c r="C5762">
-        <v>81.974999999999994</v>
-      </c>
-      <c r="D5762">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5763" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5763">
-        <v>5761</v>
-      </c>
-      <c r="B5763" s="1">
-        <v>45511.5</v>
-      </c>
-      <c r="C5763">
-        <v>87.915000000000006</v>
-      </c>
-      <c r="D5763">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5764" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5764">
-        <v>5762</v>
-      </c>
-      <c r="B5764" s="1">
-        <v>45511.510416666664</v>
-      </c>
-      <c r="C5764">
-        <v>74.097999999999999</v>
-      </c>
-      <c r="D5764">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5765" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5765">
-        <v>5763</v>
-      </c>
-      <c r="B5765" s="1">
-        <v>45511.520833333336</v>
-      </c>
-      <c r="C5765">
-        <v>68.763000000000005</v>
-      </c>
-      <c r="D5765">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5766" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5766">
-        <v>5764</v>
-      </c>
-      <c r="B5766" s="1">
-        <v>45511.53125</v>
-      </c>
-      <c r="C5766">
-        <v>68.933999999999997</v>
-      </c>
-      <c r="D5766">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5767" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5767">
-        <v>5765</v>
-      </c>
-      <c r="B5767" s="1">
-        <v>45511.541666666664</v>
-      </c>
-      <c r="C5767">
-        <v>67.906000000000006</v>
-      </c>
-      <c r="D5767">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5768" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5768">
-        <v>5766</v>
-      </c>
-      <c r="B5768" s="1">
-        <v>45511.552083333336</v>
-      </c>
-      <c r="C5768">
-        <v>67.734999999999999</v>
-      </c>
-      <c r="D5768">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5769" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5769">
-        <v>5767</v>
-      </c>
-      <c r="B5769" s="1">
-        <v>45511.5625</v>
-      </c>
-      <c r="C5769">
-        <v>67.906000000000006</v>
-      </c>
-      <c r="D5769">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5770" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5770">
-        <v>5768</v>
-      </c>
-      <c r="B5770" s="1">
-        <v>45511.572916666664</v>
-      </c>
-      <c r="C5770">
-        <v>68.933999999999997</v>
-      </c>
-      <c r="D5770">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="5771" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5771">
-        <v>5769</v>
-      </c>
-      <c r="B5771" s="1">
-        <v>45511.583333333336</v>
-      </c>
-      <c r="C5771">
-        <v>70.823999999999998</v>
-      </c>
-      <c r="D5771">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5772" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5772">
-        <v>5770</v>
-      </c>
-      <c r="B5772" s="1">
-        <v>45511.59375</v>
-      </c>
-      <c r="C5772">
-        <v>68.763000000000005</v>
-      </c>
-      <c r="D5772">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5773" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5773">
-        <v>5771</v>
-      </c>
-      <c r="B5773" s="1">
-        <v>45511.604166666664</v>
-      </c>
-      <c r="C5773">
-        <v>70.995000000000005</v>
-      </c>
-      <c r="D5773">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5774" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5774">
-        <v>5772</v>
-      </c>
-      <c r="B5774" s="1">
-        <v>45511.614583333336</v>
-      </c>
-      <c r="C5774">
-        <v>76.180999999999997</v>
-      </c>
-      <c r="D5774">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5775" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5775">
-        <v>5773</v>
-      </c>
-      <c r="B5775" s="1">
-        <v>45511.622361111113</v>
-      </c>
-      <c r="E5775" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5776" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5776">
-        <v>5774</v>
-      </c>
-      <c r="B5776" s="1">
-        <v>45511.622511574074</v>
-      </c>
-      <c r="F5776" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5777" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5777">
-        <v>5775</v>
-      </c>
-      <c r="B5777" s="1">
-        <v>45511.622557870367</v>
-      </c>
-      <c r="E5777" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5778" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5778">
-        <v>5776</v>
-      </c>
-      <c r="B5778" s="1">
-        <v>45511.622824074075</v>
-      </c>
-      <c r="F5778" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5779" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5779">
-        <v>5777</v>
-      </c>
-      <c r="B5779" s="1">
-        <v>45511.623055555552</v>
-      </c>
-      <c r="E5779" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5780" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5780">
-        <v>5778</v>
-      </c>
-      <c r="B5780" s="1">
-        <v>45511.625</v>
-      </c>
-      <c r="C5780">
-        <v>74.097999999999999</v>
-      </c>
-      <c r="D5780">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5781" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5781">
-        <v>5779</v>
-      </c>
-      <c r="B5781" s="1">
-        <v>45511.6252662037</v>
-      </c>
-      <c r="F5781" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5782" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5782">
-        <v>5780</v>
-      </c>
-      <c r="B5782" s="1">
-        <v>45511.625289351854</v>
-      </c>
-      <c r="E5782" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5783" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5783">
-        <v>5781</v>
-      </c>
-      <c r="B5783" s="1">
-        <v>45511.625543981485</v>
-      </c>
-      <c r="F5783" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5784" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5784">
-        <v>5782</v>
-      </c>
-      <c r="B5784" s="1">
-        <v>45511.62568287037</v>
-      </c>
-      <c r="E5784" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5785" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5785">
-        <v>5783</v>
-      </c>
-      <c r="B5785" s="1">
-        <v>45511.625752314816</v>
-      </c>
-      <c r="F5785" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5786" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5786">
-        <v>5784</v>
-      </c>
-      <c r="B5786" s="1">
-        <v>45511.625937500001</v>
-      </c>
-      <c r="E5786" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5787" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5787">
-        <v>5785</v>
-      </c>
-      <c r="B5787" s="1">
-        <v>45511.626192129632</v>
-      </c>
-      <c r="F5787" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5788" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5788">
-        <v>5786</v>
-      </c>
-      <c r="B5788" s="1">
-        <v>45511.62636574074</v>
-      </c>
-      <c r="E5788" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5789" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5789">
-        <v>5787</v>
-      </c>
-      <c r="B5789" s="1">
-        <v>45511.62903935185</v>
-      </c>
-      <c r="F5789" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5790" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5790">
-        <v>5788</v>
-      </c>
-      <c r="B5790" s="1">
-        <v>45511.629189814812</v>
-      </c>
-      <c r="E5790" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5791" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5791">
-        <v>5789</v>
-      </c>
-      <c r="B5791" s="1">
-        <v>45511.629432870373</v>
-      </c>
-      <c r="F5791" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5792" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5792">
-        <v>5790</v>
-      </c>
-      <c r="B5792" s="1">
-        <v>45511.629444444443</v>
-      </c>
-      <c r="E5792" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5793" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5793">
-        <v>5791</v>
-      </c>
-      <c r="B5793" s="1">
-        <v>45511.629652777781</v>
-      </c>
-      <c r="F5793" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5794" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5794">
-        <v>5792</v>
-      </c>
-      <c r="B5794" s="1">
-        <v>45511.629664351851</v>
-      </c>
-      <c r="E5794" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5795" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5795">
-        <v>5793</v>
-      </c>
-      <c r="B5795" s="1">
-        <v>45511.629745370374</v>
-      </c>
-      <c r="F5795" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5796" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5796">
-        <v>5794</v>
-      </c>
-      <c r="B5796" s="1">
-        <v>45511.629872685182</v>
-      </c>
-      <c r="E5796" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5797" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5797">
-        <v>5795</v>
-      </c>
-      <c r="B5797" s="1">
-        <v>45511.630104166667</v>
-      </c>
-      <c r="F5797" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5798" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5798">
-        <v>5796</v>
-      </c>
-      <c r="B5798" s="1">
-        <v>45511.630127314813</v>
-      </c>
-      <c r="E5798" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5799" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5799">
-        <v>5797</v>
-      </c>
-      <c r="B5799" s="1">
-        <v>45511.63013888889</v>
-      </c>
-      <c r="F5799" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5800" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5800">
-        <v>5798</v>
-      </c>
-      <c r="B5800" s="1">
-        <v>45511.630150462966</v>
-      </c>
-      <c r="E5800" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5801" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5801">
-        <v>5799</v>
-      </c>
-      <c r="B5801" s="1">
-        <v>45511.63045138889</v>
-      </c>
-      <c r="F5801" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5802" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5802">
-        <v>5800</v>
-      </c>
-      <c r="B5802" s="1">
-        <v>45511.630868055552</v>
-      </c>
-      <c r="E5802" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5803" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5803">
-        <v>5801</v>
-      </c>
-      <c r="B5803" s="1">
-        <v>45511.631365740737</v>
-      </c>
-      <c r="F5803" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5804" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5804">
-        <v>5802</v>
-      </c>
-      <c r="B5804" s="1">
-        <v>45511.631469907406</v>
-      </c>
-      <c r="E5804" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5805" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5805">
-        <v>5803</v>
-      </c>
-      <c r="B5805" s="1">
-        <v>45511.631689814814</v>
-      </c>
-      <c r="F5805" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5806" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5806">
-        <v>5804</v>
-      </c>
-      <c r="B5806" s="1">
-        <v>45511.631805555553</v>
-      </c>
-      <c r="E5806" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5807" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5807">
-        <v>5805</v>
-      </c>
-      <c r="B5807" s="1">
-        <v>45511.632060185184</v>
-      </c>
-      <c r="F5807" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5808" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5808">
-        <v>5806</v>
-      </c>
-      <c r="B5808" s="1">
-        <v>45511.632141203707</v>
-      </c>
-      <c r="E5808" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5809" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5809">
-        <v>5807</v>
-      </c>
-      <c r="B5809" s="1">
-        <v>45511.632418981484</v>
-      </c>
-      <c r="F5809" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5810" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5810">
-        <v>5808</v>
-      </c>
-      <c r="B5810" s="1">
-        <v>45511.632465277777</v>
-      </c>
-      <c r="E5810" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5811" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5811">
-        <v>5809</v>
-      </c>
-      <c r="B5811" s="1">
-        <v>45511.633981481478</v>
-      </c>
-      <c r="F5811" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5812" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5812">
-        <v>5810</v>
-      </c>
-      <c r="B5812" s="1">
-        <v>45511.634027777778</v>
-      </c>
-      <c r="E5812" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5813" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5813">
-        <v>5811</v>
-      </c>
-      <c r="B5813" s="1">
-        <v>45511.634236111109</v>
-      </c>
-      <c r="F5813" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5814" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5814">
-        <v>5812</v>
-      </c>
-      <c r="B5814" s="1">
-        <v>45511.634363425925</v>
-      </c>
-      <c r="E5814" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5815" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5815">
-        <v>5813</v>
-      </c>
-      <c r="B5815" s="1">
-        <v>45511.634641203702</v>
-      </c>
-      <c r="F5815" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5816" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5816">
-        <v>5814</v>
-      </c>
-      <c r="B5816" s="1">
-        <v>45511.635416666664</v>
-      </c>
-      <c r="C5816">
-        <v>79.325999999999993</v>
-      </c>
-      <c r="D5816">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5817" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5817">
-        <v>5815</v>
-      </c>
-      <c r="B5817" s="1">
-        <v>45511.640462962961</v>
-      </c>
-      <c r="E5817" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5818" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5818">
-        <v>5816</v>
-      </c>
-      <c r="B5818" s="1">
-        <v>45511.640706018516</v>
-      </c>
-      <c r="F5818" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5819" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5819">
-        <v>5817</v>
-      </c>
-      <c r="B5819" s="1">
-        <v>45511.640821759262</v>
-      </c>
-      <c r="E5819" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5820" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5820">
-        <v>5818</v>
-      </c>
-      <c r="B5820" s="1">
-        <v>45511.641030092593</v>
-      </c>
-      <c r="F5820" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5821" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5821">
-        <v>5819</v>
-      </c>
-      <c r="B5821" s="1">
-        <v>45511.641168981485</v>
-      </c>
-      <c r="E5821" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5822" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5822">
-        <v>5820</v>
-      </c>
-      <c r="B5822" s="1">
-        <v>45511.641215277778</v>
-      </c>
-      <c r="F5822" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5823" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5823">
-        <v>5821</v>
-      </c>
-      <c r="B5823" s="1">
-        <v>45511.645833333336</v>
-      </c>
-      <c r="C5823">
-        <v>71.683000000000007</v>
-      </c>
-      <c r="D5823">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5824" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5824">
-        <v>5822</v>
-      </c>
-      <c r="B5824" s="1">
-        <v>45511.65625</v>
-      </c>
-      <c r="C5824">
-        <v>68.933999999999997</v>
-      </c>
-      <c r="D5824">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5825" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5825">
-        <v>5823</v>
-      </c>
-      <c r="B5825" s="1">
-        <v>45511.666666666664</v>
-      </c>
-      <c r="C5825">
-        <v>68.076999999999998</v>
-      </c>
-      <c r="D5825">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5826" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5826">
-        <v>5824</v>
-      </c>
-      <c r="B5826" s="1">
-        <v>45511.677083333336</v>
-      </c>
-      <c r="C5826">
-        <v>67.734999999999999</v>
-      </c>
-      <c r="D5826">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5827" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5827">
-        <v>5825</v>
-      </c>
-      <c r="B5827" s="1">
-        <v>45511.6875</v>
-      </c>
-      <c r="C5827">
-        <v>67.391999999999996</v>
-      </c>
-      <c r="D5827">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5828" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5828">
-        <v>5826</v>
-      </c>
-      <c r="B5828" s="1">
-        <v>45511.697916666664</v>
-      </c>
-      <c r="C5828">
-        <v>67.05</v>
-      </c>
-      <c r="D5828">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5829" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5829">
-        <v>5827</v>
-      </c>
-      <c r="B5829" s="1">
-        <v>45511.708333333336</v>
-      </c>
-      <c r="C5829">
-        <v>66.879000000000005</v>
-      </c>
-      <c r="D5829">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5830" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5830">
-        <v>5828</v>
-      </c>
-      <c r="B5830" s="1">
-        <v>45511.71875</v>
-      </c>
-      <c r="C5830">
-        <v>66.707999999999998</v>
-      </c>
-      <c r="D5830">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5831" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5831">
-        <v>5829</v>
-      </c>
-      <c r="B5831" s="1">
-        <v>45511.729166666664</v>
-      </c>
-      <c r="C5831">
-        <v>66.537000000000006</v>
-      </c>
-      <c r="D5831">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5832" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5832">
-        <v>5830</v>
-      </c>
-      <c r="B5832" s="1">
-        <v>45511.739583333336</v>
-      </c>
-      <c r="C5832">
-        <v>66.879000000000005</v>
-      </c>
-      <c r="D5832">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5833" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5833">
-        <v>5831</v>
-      </c>
-      <c r="B5833" s="1">
-        <v>45511.75</v>
-      </c>
-      <c r="C5833">
-        <v>67.221000000000004</v>
-      </c>
-      <c r="D5833">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5834" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5834">
-        <v>5832</v>
-      </c>
-      <c r="B5834" s="1">
-        <v>45511.760416666664</v>
-      </c>
-      <c r="C5834">
-        <v>67.391999999999996</v>
-      </c>
-      <c r="D5834">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5835" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5835">
-        <v>5833</v>
-      </c>
-      <c r="B5835" s="1">
-        <v>45511.770833333336</v>
-      </c>
-      <c r="C5835">
-        <v>67.563999999999993</v>
-      </c>
-      <c r="D5835">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5836" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5836">
-        <v>5834</v>
-      </c>
-      <c r="B5836" s="1">
-        <v>45511.78125</v>
-      </c>
-      <c r="C5836">
-        <v>67.734999999999999</v>
-      </c>
-      <c r="D5836">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5837" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5837">
-        <v>5835</v>
-      </c>
-      <c r="B5837" s="1">
-        <v>45511.791666666664</v>
-      </c>
-      <c r="C5837">
-        <v>67.906000000000006</v>
-      </c>
-      <c r="D5837">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5838" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5838">
-        <v>5836</v>
-      </c>
-      <c r="B5838" s="1">
-        <v>45511.802083333336</v>
-      </c>
-      <c r="C5838">
-        <v>68.076999999999998</v>
-      </c>
-      <c r="D5838">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5839" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5839">
-        <v>5837</v>
-      </c>
-      <c r="B5839" s="1">
-        <v>45511.8125</v>
-      </c>
-      <c r="C5839">
-        <v>68.076999999999998</v>
-      </c>
-      <c r="D5839">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5840" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5840">
-        <v>5838</v>
-      </c>
-      <c r="B5840" s="1">
-        <v>45511.822916666664</v>
-      </c>
-      <c r="C5840">
-        <v>68.248000000000005</v>
-      </c>
-      <c r="D5840">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5841" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5841">
-        <v>5839</v>
-      </c>
-      <c r="B5841" s="1">
-        <v>45511.833333333336</v>
-      </c>
-      <c r="C5841">
-        <v>68.248000000000005</v>
-      </c>
-      <c r="D5841">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5842" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5842">
-        <v>5840</v>
-      </c>
-      <c r="B5842" s="1">
-        <v>45511.84375</v>
-      </c>
-      <c r="C5842">
-        <v>68.421000000000006</v>
-      </c>
-      <c r="D5842">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5843" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5843">
-        <v>5841</v>
-      </c>
-      <c r="B5843" s="1">
-        <v>45511.854166666664</v>
-      </c>
-      <c r="C5843">
-        <v>68.421000000000006</v>
-      </c>
-      <c r="D5843">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5844" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5844">
-        <v>5842</v>
-      </c>
-      <c r="B5844" s="1">
-        <v>45511.864583333336</v>
-      </c>
-      <c r="C5844">
-        <v>68.591999999999999</v>
-      </c>
-      <c r="D5844">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5845" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5845">
-        <v>5843</v>
-      </c>
-      <c r="B5845" s="1">
-        <v>45511.875</v>
-      </c>
-      <c r="C5845">
-        <v>68.591999999999999</v>
-      </c>
-      <c r="D5845">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5846" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5846">
-        <v>5844</v>
-      </c>
-      <c r="B5846" s="1">
-        <v>45511.885416666664</v>
-      </c>
-      <c r="C5846">
-        <v>68.591999999999999</v>
-      </c>
-      <c r="D5846">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5847" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5847">
-        <v>5845</v>
-      </c>
-      <c r="B5847" s="1">
-        <v>45511.895833333336</v>
-      </c>
-      <c r="C5847">
-        <v>68.763000000000005</v>
-      </c>
-      <c r="D5847">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5848" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5848">
-        <v>5846</v>
-      </c>
-      <c r="B5848" s="1">
-        <v>45511.90625</v>
-      </c>
-      <c r="C5848">
-        <v>68.763000000000005</v>
-      </c>
-      <c r="D5848">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5849" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5849">
-        <v>5847</v>
-      </c>
-      <c r="B5849" s="1">
-        <v>45511.916666666664</v>
-      </c>
-      <c r="C5849">
-        <v>68.763000000000005</v>
-      </c>
-      <c r="D5849">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5850" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5850">
-        <v>5848</v>
-      </c>
-      <c r="B5850" s="1">
-        <v>45511.927083333336</v>
-      </c>
-      <c r="C5850">
-        <v>68.763000000000005</v>
-      </c>
-      <c r="D5850">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5851" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5851">
-        <v>5849</v>
-      </c>
-      <c r="B5851" s="1">
-        <v>45511.9375</v>
-      </c>
-      <c r="C5851">
-        <v>68.933999999999997</v>
-      </c>
-      <c r="D5851">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5852" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5852">
-        <v>5850</v>
-      </c>
-      <c r="B5852" s="1">
-        <v>45511.947916666664</v>
-      </c>
-      <c r="C5852">
-        <v>68.933999999999997</v>
-      </c>
-      <c r="D5852">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5853" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5853">
-        <v>5851</v>
-      </c>
-      <c r="B5853" s="1">
-        <v>45511.958333333336</v>
-      </c>
-      <c r="C5853">
-        <v>68.933999999999997</v>
-      </c>
-      <c r="D5853">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5854" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5854">
-        <v>5852</v>
-      </c>
-      <c r="B5854" s="1">
-        <v>45511.96875</v>
-      </c>
-      <c r="C5854">
-        <v>68.933999999999997</v>
-      </c>
-      <c r="D5854">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5855" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5855">
-        <v>5853</v>
-      </c>
-      <c r="B5855" s="1">
-        <v>45511.979166666664</v>
-      </c>
-      <c r="C5855">
-        <v>68.933999999999997</v>
-      </c>
-      <c r="D5855">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5856" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5856">
-        <v>5854</v>
-      </c>
-      <c r="B5856" s="1">
-        <v>45511.989583333336</v>
-      </c>
-      <c r="C5856">
-        <v>69.106999999999999</v>
-      </c>
-      <c r="D5856">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5857" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5857">
-        <v>5855</v>
-      </c>
-      <c r="B5857" s="1">
-        <v>45512</v>
-      </c>
-      <c r="C5857">
-        <v>69.106999999999999</v>
-      </c>
-      <c r="D5857">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5858" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5858">
-        <v>5856</v>
-      </c>
-      <c r="B5858" s="1">
-        <v>45512.010416666664</v>
-      </c>
-      <c r="C5858">
-        <v>69.106999999999999</v>
-      </c>
-      <c r="D5858">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5859" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5859">
-        <v>5857</v>
-      </c>
-      <c r="B5859" s="1">
-        <v>45512.020833333336</v>
-      </c>
-      <c r="C5859">
-        <v>69.106999999999999</v>
-      </c>
-      <c r="D5859">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5860" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5860">
-        <v>5858</v>
-      </c>
-      <c r="B5860" s="1">
-        <v>45512.03125</v>
-      </c>
-      <c r="C5860">
-        <v>69.106999999999999</v>
-      </c>
-      <c r="D5860">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5861" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5861">
-        <v>5859</v>
-      </c>
-      <c r="B5861" s="1">
-        <v>45512.041666666664</v>
-      </c>
-      <c r="C5861">
-        <v>69.106999999999999</v>
-      </c>
-      <c r="D5861">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5862" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5862">
-        <v>5860</v>
-      </c>
-      <c r="B5862" s="1">
-        <v>45512.052083333336</v>
-      </c>
-      <c r="C5862">
-        <v>69.106999999999999</v>
-      </c>
-      <c r="D5862">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5863" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5863">
-        <v>5861</v>
-      </c>
-      <c r="B5863" s="1">
-        <v>45512.0625</v>
-      </c>
-      <c r="C5863">
-        <v>69.278000000000006</v>
-      </c>
-      <c r="D5863">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5864" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5864">
-        <v>5862</v>
-      </c>
-      <c r="B5864" s="1">
-        <v>45512.072916666664</v>
-      </c>
-      <c r="C5864">
-        <v>69.278000000000006</v>
-      </c>
-      <c r="D5864">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5865" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5865">
-        <v>5863</v>
-      </c>
-      <c r="B5865" s="1">
-        <v>45512.083333333336</v>
-      </c>
-      <c r="C5865">
-        <v>69.278000000000006</v>
-      </c>
-      <c r="D5865">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5866" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5866">
-        <v>5864</v>
-      </c>
-      <c r="B5866" s="1">
-        <v>45512.09375</v>
-      </c>
-      <c r="C5866">
-        <v>69.278000000000006</v>
-      </c>
-      <c r="D5866">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5867" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5867">
-        <v>5865</v>
-      </c>
-      <c r="B5867" s="1">
-        <v>45512.104166666664</v>
-      </c>
-      <c r="C5867">
-        <v>69.278000000000006</v>
-      </c>
-      <c r="D5867">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5868" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5868">
-        <v>5866</v>
-      </c>
-      <c r="B5868" s="1">
-        <v>45512.114583333336</v>
-      </c>
-      <c r="C5868">
-        <v>69.278000000000006</v>
-      </c>
-      <c r="D5868">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5869" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5869">
-        <v>5867</v>
-      </c>
-      <c r="B5869" s="1">
-        <v>45512.125</v>
-      </c>
-      <c r="C5869">
-        <v>69.278000000000006</v>
-      </c>
-      <c r="D5869">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5870" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5870">
-        <v>5868</v>
-      </c>
-      <c r="B5870" s="1">
-        <v>45512.135416666664</v>
-      </c>
-      <c r="C5870">
-        <v>69.278000000000006</v>
-      </c>
-      <c r="D5870">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5871" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5871">
-        <v>5869</v>
-      </c>
-      <c r="B5871" s="1">
-        <v>45512.145833333336</v>
-      </c>
-      <c r="C5871">
-        <v>69.448999999999998</v>
-      </c>
-      <c r="D5871">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5872" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5872">
-        <v>5870</v>
-      </c>
-      <c r="B5872" s="1">
-        <v>45512.15625</v>
-      </c>
-      <c r="C5872">
-        <v>69.448999999999998</v>
-      </c>
-      <c r="D5872">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5873" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5873">
-        <v>5871</v>
-      </c>
-      <c r="B5873" s="1">
-        <v>45512.166666666664</v>
-      </c>
-      <c r="C5873">
-        <v>69.448999999999998</v>
-      </c>
-      <c r="D5873">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5874" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5874">
-        <v>5872</v>
-      </c>
-      <c r="B5874" s="1">
-        <v>45512.177083333336</v>
-      </c>
-      <c r="C5874">
-        <v>69.448999999999998</v>
-      </c>
-      <c r="D5874">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5875" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5875">
-        <v>5873</v>
-      </c>
-      <c r="B5875" s="1">
-        <v>45512.1875</v>
-      </c>
-      <c r="C5875">
-        <v>69.448999999999998</v>
-      </c>
-      <c r="D5875">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5876" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5876">
-        <v>5874</v>
-      </c>
-      <c r="B5876" s="1">
-        <v>45512.197916666664</v>
-      </c>
-      <c r="C5876">
-        <v>69.448999999999998</v>
-      </c>
-      <c r="D5876">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5877" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5877">
-        <v>5875</v>
-      </c>
-      <c r="B5877" s="1">
-        <v>45512.208333333336</v>
-      </c>
-      <c r="C5877">
-        <v>69.448999999999998</v>
-      </c>
-      <c r="D5877">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5878" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5878">
-        <v>5876</v>
-      </c>
-      <c r="B5878" s="1">
-        <v>45512.21875</v>
-      </c>
-      <c r="C5878">
-        <v>69.793000000000006</v>
-      </c>
-      <c r="D5878">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5879" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5879">
-        <v>5877</v>
-      </c>
-      <c r="B5879" s="1">
-        <v>45512.229166666664</v>
-      </c>
-      <c r="C5879">
-        <v>70.137</v>
-      </c>
-      <c r="D5879">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5880" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5880">
-        <v>5878</v>
-      </c>
-      <c r="B5880" s="1">
-        <v>45512.239583333336</v>
-      </c>
-      <c r="C5880">
-        <v>70.308000000000007</v>
-      </c>
-      <c r="D5880">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5881" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5881">
-        <v>5879</v>
-      </c>
-      <c r="B5881" s="1">
-        <v>45512.25</v>
-      </c>
-      <c r="C5881">
-        <v>70.308000000000007</v>
-      </c>
-      <c r="D5881">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5882" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5882">
-        <v>5880</v>
-      </c>
-      <c r="B5882" s="1">
-        <v>45512.260416666664</v>
-      </c>
-      <c r="C5882">
-        <v>70.48</v>
-      </c>
-      <c r="D5882">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5883" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5883">
-        <v>5881</v>
-      </c>
-      <c r="B5883" s="1">
-        <v>45512.270833333336</v>
-      </c>
-      <c r="C5883">
-        <v>70.137</v>
-      </c>
-      <c r="D5883">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5884" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5884">
-        <v>5882</v>
-      </c>
-      <c r="B5884" s="1">
-        <v>45512.28125</v>
-      </c>
-      <c r="C5884">
-        <v>70.48</v>
-      </c>
-      <c r="D5884">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5885" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5885">
-        <v>5883</v>
-      </c>
-      <c r="B5885" s="1">
-        <v>45512.291666666664</v>
-      </c>
-      <c r="C5885">
-        <v>70.650999999999996</v>
-      </c>
-      <c r="D5885">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5886" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5886">
-        <v>5884</v>
-      </c>
-      <c r="B5886" s="1">
-        <v>45512.302083333336</v>
-      </c>
-      <c r="C5886">
-        <v>70.823999999999998</v>
-      </c>
-      <c r="D5886">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5887" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5887">
-        <v>5885</v>
-      </c>
-      <c r="B5887" s="1">
-        <v>45512.3125</v>
-      </c>
-      <c r="C5887">
-        <v>70.823999999999998</v>
-      </c>
-      <c r="D5887">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5888" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5888">
-        <v>5886</v>
-      </c>
-      <c r="B5888" s="1">
-        <v>45512.322916666664</v>
-      </c>
-      <c r="C5888">
-        <v>70.995000000000005</v>
-      </c>
-      <c r="D5888">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5889" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5889">
-        <v>5887</v>
-      </c>
-      <c r="B5889" s="1">
-        <v>45512.333333333336</v>
-      </c>
-      <c r="C5889">
-        <v>70.823999999999998</v>
-      </c>
-      <c r="D5889">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5890" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5890">
-        <v>5888</v>
-      </c>
-      <c r="B5890" s="1">
-        <v>45512.34375</v>
-      </c>
-      <c r="C5890">
-        <v>70.823999999999998</v>
-      </c>
-      <c r="D5890">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5891" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5891">
-        <v>5889</v>
-      </c>
-      <c r="B5891" s="1">
-        <v>45512.354166666664</v>
-      </c>
-      <c r="C5891">
-        <v>70.995000000000005</v>
-      </c>
-      <c r="D5891">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5892" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5892">
-        <v>5890</v>
-      </c>
-      <c r="B5892" s="1">
-        <v>45512.364583333336</v>
-      </c>
-      <c r="C5892">
-        <v>70.823999999999998</v>
-      </c>
-      <c r="D5892">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5893" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5893">
-        <v>5891</v>
-      </c>
-      <c r="B5893" s="1">
-        <v>45512.375</v>
-      </c>
-      <c r="C5893">
-        <v>70.823999999999998</v>
-      </c>
-      <c r="D5893">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5894" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5894">
-        <v>5892</v>
-      </c>
-      <c r="B5894" s="1">
-        <v>45512.385416666664</v>
-      </c>
-      <c r="C5894">
-        <v>70.823999999999998</v>
-      </c>
-      <c r="D5894">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5895" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5895">
-        <v>5893</v>
-      </c>
-      <c r="B5895" s="1">
-        <v>45512.395833333336</v>
-      </c>
-      <c r="C5895">
-        <v>70.823999999999998</v>
-      </c>
-      <c r="D5895">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5896" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5896">
-        <v>5894</v>
-      </c>
-      <c r="B5896" s="1">
-        <v>45512.40625</v>
-      </c>
-      <c r="C5896">
-        <v>70.995000000000005</v>
-      </c>
-      <c r="D5896">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5897" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5897">
-        <v>5895</v>
-      </c>
-      <c r="B5897" s="1">
-        <v>45512.416666666664</v>
-      </c>
-      <c r="C5897">
-        <v>70.995000000000005</v>
-      </c>
-      <c r="D5897">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5898" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5898">
-        <v>5896</v>
-      </c>
-      <c r="B5898" s="1">
-        <v>45512.427083333336</v>
-      </c>
-      <c r="C5898">
-        <v>70.995000000000005</v>
-      </c>
-      <c r="D5898">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5899" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5899">
-        <v>5897</v>
-      </c>
-      <c r="B5899" s="1">
-        <v>45512.4375</v>
-      </c>
-      <c r="C5899">
-        <v>70.823999999999998</v>
-      </c>
-      <c r="D5899">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5900" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5900">
-        <v>5898</v>
-      </c>
-      <c r="B5900" s="1">
-        <v>45512.447916666664</v>
-      </c>
-      <c r="C5900">
-        <v>70.308000000000007</v>
-      </c>
-      <c r="D5900">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5901" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5901">
-        <v>5899</v>
-      </c>
-      <c r="B5901" s="1">
-        <v>45512.458333333336</v>
-      </c>
-      <c r="C5901">
-        <v>70.137</v>
-      </c>
-      <c r="D5901">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5902" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5902">
-        <v>5900</v>
-      </c>
-      <c r="B5902" s="1">
-        <v>45512.46875</v>
-      </c>
-      <c r="C5902">
-        <v>69.963999999999999</v>
-      </c>
-      <c r="D5902">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5903" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5903">
-        <v>5901</v>
-      </c>
-      <c r="B5903" s="1">
-        <v>45512.479166666664</v>
-      </c>
-      <c r="C5903">
-        <v>69.793000000000006</v>
-      </c>
-      <c r="D5903">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5904" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5904">
-        <v>5902</v>
-      </c>
-      <c r="B5904" s="1">
-        <v>45512.489583333336</v>
-      </c>
-      <c r="C5904">
-        <v>69.622</v>
-      </c>
-      <c r="D5904">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5905" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5905">
-        <v>5903</v>
-      </c>
-      <c r="B5905" s="1">
-        <v>45512.5</v>
-      </c>
-      <c r="C5905">
-        <v>69.448999999999998</v>
-      </c>
-      <c r="D5905">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5906" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5906">
-        <v>5904</v>
-      </c>
-      <c r="B5906" s="1">
-        <v>45512.510416666664</v>
-      </c>
-      <c r="C5906">
-        <v>69.278000000000006</v>
-      </c>
-      <c r="D5906">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5907" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5907">
-        <v>5905</v>
-      </c>
-      <c r="B5907" s="1">
-        <v>45512.520833333336</v>
-      </c>
-      <c r="C5907">
-        <v>69.106999999999999</v>
-      </c>
-      <c r="D5907">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5908" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5908">
-        <v>5906</v>
-      </c>
-      <c r="B5908" s="1">
-        <v>45512.53125</v>
-      </c>
-      <c r="C5908">
-        <v>68.933999999999997</v>
-      </c>
-      <c r="D5908">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5909" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5909">
-        <v>5907</v>
-      </c>
-      <c r="B5909" s="1">
-        <v>45512.541666666664</v>
-      </c>
-      <c r="C5909">
-        <v>68.763000000000005</v>
-      </c>
-      <c r="D5909">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5910" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5910">
-        <v>5908</v>
-      </c>
-      <c r="B5910" s="1">
-        <v>45512.552083333336</v>
-      </c>
-      <c r="C5910">
-        <v>68.591999999999999</v>
-      </c>
-      <c r="D5910">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5911" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5911">
-        <v>5909</v>
-      </c>
-      <c r="B5911" s="1">
-        <v>45512.5625</v>
-      </c>
-      <c r="C5911">
-        <v>68.421000000000006</v>
-      </c>
-      <c r="D5911">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5912" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5912">
-        <v>5910</v>
-      </c>
-      <c r="B5912" s="1">
-        <v>45512.572916666664</v>
-      </c>
-      <c r="C5912">
-        <v>68.248000000000005</v>
-      </c>
-      <c r="D5912">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5913" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5913">
-        <v>5911</v>
-      </c>
-      <c r="B5913" s="1">
-        <v>45512.583333333336</v>
-      </c>
-      <c r="C5913">
-        <v>68.076999999999998</v>
-      </c>
-      <c r="D5913">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5914" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5914">
-        <v>5912</v>
-      </c>
-      <c r="B5914" s="1">
-        <v>45512.59375</v>
-      </c>
-      <c r="C5914">
-        <v>67.906000000000006</v>
-      </c>
-      <c r="D5914">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5915" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5915">
-        <v>5913</v>
-      </c>
-      <c r="B5915" s="1">
-        <v>45512.604166666664</v>
-      </c>
-      <c r="C5915">
-        <v>67.734999999999999</v>
-      </c>
-      <c r="D5915">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5916" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5916">
-        <v>5914</v>
-      </c>
-      <c r="B5916" s="1">
-        <v>45512.614583333336</v>
-      </c>
-      <c r="C5916">
-        <v>67.563999999999993</v>
-      </c>
-      <c r="D5916">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5917" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5917">
-        <v>5915</v>
-      </c>
-      <c r="B5917" s="1">
-        <v>45512.625</v>
-      </c>
-      <c r="C5917">
-        <v>67.906000000000006</v>
-      </c>
-      <c r="D5917">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5918" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5918">
-        <v>5916</v>
-      </c>
-      <c r="B5918" s="1">
-        <v>45512.635416666664</v>
-      </c>
-      <c r="C5918">
-        <v>68.076999999999998</v>
-      </c>
-      <c r="D5918">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5919" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5919">
-        <v>5917</v>
-      </c>
-      <c r="B5919" s="1">
-        <v>45512.645833333336</v>
-      </c>
-      <c r="C5919">
-        <v>69.622</v>
-      </c>
-      <c r="D5919">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5920" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5920">
-        <v>5918</v>
-      </c>
-      <c r="B5920" s="1">
-        <v>45512.648865740739</v>
-      </c>
-      <c r="E5920" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5921" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5921">
-        <v>5919</v>
-      </c>
-      <c r="B5921" s="1">
-        <v>45512.648958333331</v>
-      </c>
-      <c r="F5921" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5922" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5922">
-        <v>5920</v>
-      </c>
-      <c r="B5922" s="1">
-        <v>45512.649027777778</v>
-      </c>
-      <c r="E5922" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5923" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5923">
-        <v>5921</v>
-      </c>
-      <c r="B5923" s="1">
-        <v>45512.649074074077</v>
-      </c>
-      <c r="F5923" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5924" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5924">
-        <v>5922</v>
-      </c>
-      <c r="B5924" s="1">
-        <v>45512.649328703701</v>
-      </c>
-      <c r="E5924" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5925" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5925">
-        <v>5923</v>
-      </c>
-      <c r="B5925" s="1">
-        <v>45512.649525462963</v>
-      </c>
-      <c r="F5925" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5926" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5926">
-        <v>5924</v>
-      </c>
-      <c r="B5926" s="1">
-        <v>45512.649618055555</v>
-      </c>
-      <c r="E5926" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5927" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5927">
-        <v>5925</v>
-      </c>
-      <c r="B5927" s="1">
-        <v>45512.649733796294</v>
-      </c>
-      <c r="F5927" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5928" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5928">
-        <v>5926</v>
-      </c>
-      <c r="B5928" s="1">
-        <v>45512.651909722219</v>
-      </c>
-      <c r="E5928" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5928" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5929" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5929">
-        <v>5927</v>
-      </c>
-      <c r="B5929" s="1">
-        <v>45512.652060185188</v>
-      </c>
-      <c r="H5929" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5929" t="s">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -83796,9 +81580,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7285F63A-97F0-476B-BC51-40BA31CE0241}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -83806,26 +81590,31 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -84062,15 +81851,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="94106a43-364c-4431-a764-9e3dd608a139" xsi:nil="true"/>
@@ -84081,14 +81861,49 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{180265A8-6DC6-4995-A48F-6C066F4A58AE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{180265A8-6DC6-4995-A48F-6C066F4A58AE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6f61aad6-7023-4354-b4be-ac6efb5d4555"/>
+    <ds:schemaRef ds:uri="94106a43-364c-4431-a764-9e3dd608a139"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5BC1871-2182-4AB5-A6AD-761EABA67682}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE04228-8B66-4355-A4E5-0F56493297E1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="94106a43-364c-4431-a764-9e3dd608a139"/>
+    <ds:schemaRef ds:uri="6f61aad6-7023-4354-b4be-ac6efb5d4555"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE04228-8B66-4355-A4E5-0F56493297E1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5BC1871-2182-4AB5-A6AD-761EABA67682}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>